--- a/开发笔记.xlsx
+++ b/开发笔记.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="608">
   <si>
     <t>…</t>
   </si>
@@ -2587,19 +2587,143 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
+    <t>工业:4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业:3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业:2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转bar(1)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转Mpa（0)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转kpa(3)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转psi(2)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转kgf/cm^2(4）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转pa(5)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度(0.02)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>标定单位(主）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示小数点(主）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>标定有效数字6位，工业显示5位，商用4位</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转Kpa（0)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>转Mpa(3)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示举例(主)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示举例(主）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>标定举例，满量程2.5Mpa</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
     <t>商用:3</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>工业:4</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>商用:2</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业:3</t>
+    <t>dot</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>商用：2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4-1)=3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3-1)=2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2-1)=1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-1)=0</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4-3)=1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3-3)=0</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2-3)=-1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-3)=-2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4-2)=2</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3-2)=1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2-2)=0</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-2)=-1</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
@@ -2607,71 +2731,51 @@
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
-    <t>工业:2</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转bar(1)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转Mpa（0)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转kpa(3)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转psi(2)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转kgf/cm^2(4）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转pa(5)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>精度(0.02)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>标定单位(主）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示小数点(主）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>标定有效数字6位，工业显示5位，商用4位</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转Kpa（0)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>转Mpa(3)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示举例(主)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示举例(主）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>标定举例，满量程2.5Mpa</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+    <t>x/pwr(4-2),4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(3-2),4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(2-2),4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(4-2),3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(3-2),3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(2-2),3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(4-1),4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(3-1),4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(2-1),4</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(4-1),3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(3-1),3</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>x/pwr(2-1),3</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -3673,7 +3777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4083,9 +4187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4098,9 +4199,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4119,12 +4217,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4137,30 +4349,12 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="36" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4174,51 +4368,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4260,6 +4409,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4278,9 +4430,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4288,27 +4467,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4358,7 +4516,7 @@
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4396,16 +4554,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4904,34 +5052,34 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" hidden="1" thickBot="1"/>
     <row r="2" spans="1:8" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="178"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="183"/>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="168"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="18" t="s">
@@ -4974,22 +5122,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="179"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="186"/>
     </row>
     <row r="8" spans="1:8" ht="27" customHeight="1" thickBot="1">
-      <c r="A8" s="167" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
+      <c r="A8" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="19" t="s">
@@ -5004,22 +5152,22 @@
       <c r="D9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="154"/>
+      <c r="F9" s="190"/>
       <c r="G9" s="61" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="192" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="177" t="s">
         <v>342</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5037,11 +5185,11 @@
       <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="162"/>
+      <c r="A11" s="170"/>
       <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="159"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="18" t="s">
         <v>5</v>
       </c>
@@ -5057,11 +5205,11 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="162"/>
+      <c r="A12" s="170"/>
       <c r="B12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="18" t="s">
         <v>5</v>
       </c>
@@ -5076,11 +5224,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="162"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="159"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="18" t="s">
         <v>5</v>
       </c>
@@ -5095,11 +5243,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="162"/>
+      <c r="A14" s="170"/>
       <c r="B14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="159"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="18" t="s">
         <v>5</v>
       </c>
@@ -5114,11 +5262,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="162"/>
+      <c r="A15" s="170"/>
       <c r="B15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="159"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="18" t="s">
         <v>2</v>
       </c>
@@ -5133,11 +5281,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="162"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="159"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="18" t="s">
         <v>5</v>
       </c>
@@ -5152,11 +5300,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="162"/>
+      <c r="A17" s="170"/>
       <c r="B17" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="179" t="s">
         <v>343</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -5173,11 +5321,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="162"/>
+      <c r="A18" s="170"/>
       <c r="B18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="156"/>
+      <c r="C18" s="180"/>
       <c r="D18" s="18" t="s">
         <v>2</v>
       </c>
@@ -5192,11 +5340,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="162"/>
+      <c r="A19" s="170"/>
       <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="156"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="18" t="s">
         <v>5</v>
       </c>
@@ -5211,11 +5359,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="162"/>
+      <c r="A20" s="170"/>
       <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="156"/>
+      <c r="C20" s="180"/>
       <c r="D20" s="18" t="s">
         <v>5</v>
       </c>
@@ -5230,11 +5378,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="162"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="156"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="18" t="s">
         <v>5</v>
       </c>
@@ -5249,11 +5397,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="162"/>
+      <c r="A22" s="170"/>
       <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="156"/>
+      <c r="C22" s="180"/>
       <c r="D22" s="18" t="s">
         <v>5</v>
       </c>
@@ -5268,11 +5416,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="162"/>
+      <c r="A23" s="170"/>
       <c r="B23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="156"/>
+      <c r="C23" s="180"/>
       <c r="D23" s="18" t="s">
         <v>5</v>
       </c>
@@ -5287,11 +5435,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="162"/>
+      <c r="A24" s="170"/>
       <c r="B24" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="158" t="s">
+      <c r="C24" s="177" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -5308,11 +5456,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="162"/>
+      <c r="A25" s="170"/>
       <c r="B25" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="159"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="18" t="s">
         <v>5</v>
       </c>
@@ -5327,11 +5475,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="162"/>
+      <c r="A26" s="170"/>
       <c r="B26" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="159"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="18" t="s">
         <v>5</v>
       </c>
@@ -5346,11 +5494,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="170"/>
       <c r="B27" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="159"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="18" t="s">
         <v>5</v>
       </c>
@@ -5365,11 +5513,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="162"/>
+      <c r="A28" s="170"/>
       <c r="B28" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="159"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="18" t="s">
         <v>5</v>
       </c>
@@ -5384,11 +5532,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="162"/>
+      <c r="A29" s="170"/>
       <c r="B29" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="159"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="18" t="s">
         <v>5</v>
       </c>
@@ -5403,11 +5551,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="162"/>
+      <c r="A30" s="170"/>
       <c r="B30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="159"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="18" t="s">
         <v>2</v>
       </c>
@@ -5422,11 +5570,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="162"/>
+      <c r="A31" s="170"/>
       <c r="B31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="160"/>
+      <c r="C31" s="178"/>
       <c r="D31" s="18" t="s">
         <v>5</v>
       </c>
@@ -5441,7 +5589,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="162"/>
+      <c r="A32" s="170"/>
       <c r="B32" s="18" t="s">
         <v>110</v>
       </c>
@@ -5462,7 +5610,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="162"/>
+      <c r="A33" s="170"/>
       <c r="B33" s="18" t="s">
         <v>24</v>
       </c>
@@ -5481,7 +5629,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="162"/>
+      <c r="A34" s="170"/>
       <c r="B34" s="18" t="s">
         <v>25</v>
       </c>
@@ -5500,7 +5648,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="162"/>
+      <c r="A35" s="170"/>
       <c r="B35" s="18" t="s">
         <v>137</v>
       </c>
@@ -5519,7 +5667,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="162"/>
+      <c r="A36" s="170"/>
       <c r="B36" s="18" t="s">
         <v>352</v>
       </c>
@@ -5538,7 +5686,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="162"/>
+      <c r="A37" s="170"/>
       <c r="B37" s="18" t="s">
         <v>139</v>
       </c>
@@ -5557,7 +5705,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="162"/>
+      <c r="A38" s="170"/>
       <c r="B38" s="18" t="s">
         <v>140</v>
       </c>
@@ -5576,7 +5724,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="162"/>
+      <c r="A39" s="170"/>
       <c r="B39" s="43" t="s">
         <v>161</v>
       </c>
@@ -5595,11 +5743,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="162"/>
+      <c r="A40" s="170"/>
       <c r="B40" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="158" t="s">
+      <c r="C40" s="177" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -5616,11 +5764,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="162"/>
+      <c r="A41" s="170"/>
       <c r="B41" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="159"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="18" t="s">
         <v>5</v>
       </c>
@@ -5635,11 +5783,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="162"/>
+      <c r="A42" s="170"/>
       <c r="B42" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="159"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="18" t="s">
         <v>5</v>
       </c>
@@ -5654,11 +5802,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="162"/>
+      <c r="A43" s="170"/>
       <c r="B43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="159"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="18" t="s">
         <v>2</v>
       </c>
@@ -5673,11 +5821,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="162"/>
+      <c r="A44" s="170"/>
       <c r="B44" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="160"/>
+      <c r="C44" s="178"/>
       <c r="D44" s="18" t="s">
         <v>5</v>
       </c>
@@ -5692,11 +5840,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="162"/>
+      <c r="A45" s="170"/>
       <c r="B45" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="155" t="s">
+      <c r="C45" s="179" t="s">
         <v>349</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -5713,11 +5861,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="162"/>
+      <c r="A46" s="170"/>
       <c r="B46" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="156"/>
+      <c r="C46" s="180"/>
       <c r="D46" s="18" t="s">
         <v>2</v>
       </c>
@@ -5732,11 +5880,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="162"/>
+      <c r="A47" s="170"/>
       <c r="B47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="156"/>
+      <c r="C47" s="180"/>
       <c r="D47" s="18" t="s">
         <v>5</v>
       </c>
@@ -5751,11 +5899,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="162"/>
+      <c r="A48" s="170"/>
       <c r="B48" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="156"/>
+      <c r="C48" s="180"/>
       <c r="D48" s="18" t="s">
         <v>5</v>
       </c>
@@ -5770,11 +5918,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="162"/>
+      <c r="A49" s="170"/>
       <c r="B49" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="156"/>
+      <c r="C49" s="180"/>
       <c r="D49" s="18" t="s">
         <v>5</v>
       </c>
@@ -5789,11 +5937,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A50" s="162"/>
+      <c r="A50" s="170"/>
       <c r="B50" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="155" t="s">
+      <c r="C50" s="179" t="s">
         <v>348</v>
       </c>
       <c r="D50" s="18" t="s">
@@ -5810,11 +5958,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A51" s="162"/>
+      <c r="A51" s="170"/>
       <c r="B51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="156"/>
+      <c r="C51" s="180"/>
       <c r="D51" s="18" t="s">
         <v>2</v>
       </c>
@@ -5829,11 +5977,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A52" s="162"/>
+      <c r="A52" s="170"/>
       <c r="B52" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="156"/>
+      <c r="C52" s="180"/>
       <c r="D52" s="18" t="s">
         <v>5</v>
       </c>
@@ -5848,11 +5996,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" s="81" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="162"/>
+      <c r="A53" s="170"/>
       <c r="B53" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="156"/>
+      <c r="C53" s="180"/>
       <c r="D53" s="79" t="s">
         <v>2</v>
       </c>
@@ -5867,11 +6015,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="162"/>
+      <c r="A54" s="170"/>
       <c r="B54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="156"/>
+      <c r="C54" s="180"/>
       <c r="D54" s="18" t="s">
         <v>8</v>
       </c>
@@ -5886,11 +6034,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A55" s="162"/>
+      <c r="A55" s="170"/>
       <c r="B55" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="156"/>
+      <c r="C55" s="180"/>
       <c r="D55" s="18" t="s">
         <v>8</v>
       </c>
@@ -5905,11 +6053,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="162"/>
+      <c r="A56" s="170"/>
       <c r="B56" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="156"/>
+      <c r="C56" s="180"/>
       <c r="D56" s="18" t="s">
         <v>2</v>
       </c>
@@ -5924,11 +6072,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="162"/>
+      <c r="A57" s="170"/>
       <c r="B57" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="156"/>
+      <c r="C57" s="180"/>
       <c r="D57" s="18" t="s">
         <v>2</v>
       </c>
@@ -5943,11 +6091,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A58" s="162"/>
+      <c r="A58" s="170"/>
       <c r="B58" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="156"/>
+      <c r="C58" s="180"/>
       <c r="D58" s="18" t="s">
         <v>2</v>
       </c>
@@ -5962,11 +6110,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A59" s="162"/>
+      <c r="A59" s="170"/>
       <c r="B59" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="156"/>
+      <c r="C59" s="180"/>
       <c r="D59" s="18" t="s">
         <v>2</v>
       </c>
@@ -5981,11 +6129,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A60" s="162"/>
+      <c r="A60" s="170"/>
       <c r="B60" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="157"/>
+      <c r="C60" s="191"/>
       <c r="D60" s="18" t="s">
         <v>2</v>
       </c>
@@ -6000,7 +6148,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A61" s="162"/>
+      <c r="A61" s="170"/>
       <c r="B61" s="18" t="s">
         <v>110</v>
       </c>
@@ -6021,11 +6169,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="24" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A62" s="162"/>
+      <c r="A62" s="170"/>
       <c r="B62" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="159"/>
+      <c r="C62" s="175"/>
       <c r="D62" s="18" t="s">
         <v>2</v>
       </c>
@@ -6040,11 +6188,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" s="24" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A63" s="162"/>
+      <c r="A63" s="170"/>
       <c r="B63" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="159"/>
+      <c r="C63" s="175"/>
       <c r="D63" s="18" t="s">
         <v>2</v>
       </c>
@@ -6059,11 +6207,11 @@
       </c>
     </row>
     <row r="64" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A64" s="162"/>
+      <c r="A64" s="170"/>
       <c r="B64" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="175"/>
+      <c r="C64" s="176"/>
       <c r="D64" s="18" t="s">
         <v>5</v>
       </c>
@@ -6078,7 +6226,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A65" s="162"/>
+      <c r="A65" s="170"/>
       <c r="B65" s="18" t="s">
         <v>355</v>
       </c>
@@ -6099,11 +6247,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A66" s="162"/>
+      <c r="A66" s="170"/>
       <c r="B66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="159"/>
+      <c r="C66" s="175"/>
       <c r="D66" s="18" t="s">
         <v>2</v>
       </c>
@@ -6118,11 +6266,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A67" s="162"/>
+      <c r="A67" s="170"/>
       <c r="B67" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="159"/>
+      <c r="C67" s="175"/>
       <c r="D67" s="18" t="s">
         <v>5</v>
       </c>
@@ -6137,11 +6285,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A68" s="162"/>
+      <c r="A68" s="170"/>
       <c r="B68" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="175"/>
+      <c r="C68" s="176"/>
       <c r="D68" s="18" t="s">
         <v>2</v>
       </c>
@@ -6156,7 +6304,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A69" s="162"/>
+      <c r="A69" s="170"/>
       <c r="B69" s="27" t="s">
         <v>110</v>
       </c>
@@ -6177,11 +6325,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A70" s="162"/>
+      <c r="A70" s="170"/>
       <c r="B70" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="159"/>
+      <c r="C70" s="175"/>
       <c r="D70" s="18" t="s">
         <v>63</v>
       </c>
@@ -6196,11 +6344,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A71" s="162"/>
+      <c r="A71" s="170"/>
       <c r="B71" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="159"/>
+      <c r="C71" s="175"/>
       <c r="D71" s="18" t="s">
         <v>2</v>
       </c>
@@ -6215,11 +6363,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A72" s="162"/>
+      <c r="A72" s="170"/>
       <c r="B72" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="159"/>
+      <c r="C72" s="175"/>
       <c r="D72" s="18" t="s">
         <v>5</v>
       </c>
@@ -6236,7 +6384,7 @@
     <row r="73" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A73" s="54"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="159"/>
+      <c r="C73" s="175"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
@@ -6245,14 +6393,14 @@
     <row r="74" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A74" s="54"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="175"/>
+      <c r="C74" s="176"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="65"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="170" t="s">
+      <c r="A75" s="169" t="s">
         <v>91</v>
       </c>
       <c r="B75" s="18" t="s">
@@ -6275,11 +6423,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A76" s="162"/>
+      <c r="A76" s="170"/>
       <c r="B76" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="159"/>
+      <c r="C76" s="175"/>
       <c r="D76" s="18" t="s">
         <v>126</v>
       </c>
@@ -6294,11 +6442,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="162"/>
+      <c r="A77" s="170"/>
       <c r="B77" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="159"/>
+      <c r="C77" s="175"/>
       <c r="D77" s="18" t="s">
         <v>8</v>
       </c>
@@ -6313,11 +6461,11 @@
       </c>
     </row>
     <row r="78" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A78" s="162"/>
+      <c r="A78" s="170"/>
       <c r="B78" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="159"/>
+      <c r="C78" s="175"/>
       <c r="D78" s="18" t="s">
         <v>8</v>
       </c>
@@ -6332,11 +6480,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A79" s="162"/>
+      <c r="A79" s="170"/>
       <c r="B79" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="159"/>
+      <c r="C79" s="175"/>
       <c r="D79" s="18" t="s">
         <v>132</v>
       </c>
@@ -6351,11 +6499,11 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A80" s="162"/>
+      <c r="A80" s="170"/>
       <c r="B80" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="159"/>
+      <c r="C80" s="175"/>
       <c r="D80" s="18" t="s">
         <v>8</v>
       </c>
@@ -6370,11 +6518,11 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A81" s="162"/>
+      <c r="A81" s="170"/>
       <c r="B81" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="159"/>
+      <c r="C81" s="175"/>
       <c r="D81" s="18" t="s">
         <v>8</v>
       </c>
@@ -6389,11 +6537,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A82" s="162"/>
+      <c r="A82" s="170"/>
       <c r="B82" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="159"/>
+      <c r="C82" s="175"/>
       <c r="D82" s="18" t="s">
         <v>5</v>
       </c>
@@ -6408,11 +6556,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A83" s="162"/>
+      <c r="A83" s="170"/>
       <c r="B83" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="159"/>
+      <c r="C83" s="175"/>
       <c r="D83" s="18" t="s">
         <v>5</v>
       </c>
@@ -6427,11 +6575,11 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A84" s="162"/>
+      <c r="A84" s="170"/>
       <c r="B84" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="159"/>
+      <c r="C84" s="175"/>
       <c r="D84" s="18" t="s">
         <v>5</v>
       </c>
@@ -6446,11 +6594,11 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A85" s="162"/>
+      <c r="A85" s="170"/>
       <c r="B85" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="159"/>
+      <c r="C85" s="175"/>
       <c r="D85" s="18" t="s">
         <v>5</v>
       </c>
@@ -6465,11 +6613,11 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A86" s="162"/>
+      <c r="A86" s="170"/>
       <c r="B86" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="159"/>
+      <c r="C86" s="175"/>
       <c r="D86" s="18" t="s">
         <v>5</v>
       </c>
@@ -6484,11 +6632,11 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A87" s="162"/>
+      <c r="A87" s="170"/>
       <c r="B87" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="159"/>
+      <c r="C87" s="175"/>
       <c r="D87" s="18" t="s">
         <v>5</v>
       </c>
@@ -6503,11 +6651,11 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A88" s="162"/>
+      <c r="A88" s="170"/>
       <c r="B88" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="159"/>
+      <c r="C88" s="175"/>
       <c r="D88" s="18" t="s">
         <v>5</v>
       </c>
@@ -6522,11 +6670,11 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A89" s="162"/>
+      <c r="A89" s="170"/>
       <c r="B89" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="159"/>
+      <c r="C89" s="175"/>
       <c r="D89" s="18" t="s">
         <v>2</v>
       </c>
@@ -6541,11 +6689,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A90" s="162"/>
+      <c r="A90" s="170"/>
       <c r="B90" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="159"/>
+      <c r="C90" s="175"/>
       <c r="D90" s="18" t="s">
         <v>5</v>
       </c>
@@ -6560,11 +6708,11 @@
       </c>
     </row>
     <row r="91" spans="1:8" s="46" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="A91" s="162"/>
+      <c r="A91" s="170"/>
       <c r="B91" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="159"/>
+      <c r="C91" s="175"/>
       <c r="D91" s="18" t="s">
         <v>22</v>
       </c>
@@ -6583,11 +6731,11 @@
       </c>
     </row>
     <row r="92" spans="1:8" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A92" s="162"/>
+      <c r="A92" s="170"/>
       <c r="B92" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C92" s="159"/>
+      <c r="C92" s="175"/>
       <c r="D92" s="18" t="s">
         <v>5</v>
       </c>
@@ -6602,11 +6750,11 @@
       </c>
     </row>
     <row r="93" spans="1:8" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A93" s="162"/>
+      <c r="A93" s="170"/>
       <c r="B93" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="159"/>
+      <c r="C93" s="175"/>
       <c r="D93" s="18" t="s">
         <v>0</v>
       </c>
@@ -6619,11 +6767,11 @@
       <c r="G93" s="64"/>
     </row>
     <row r="94" spans="1:8" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A94" s="162"/>
+      <c r="A94" s="170"/>
       <c r="B94" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C94" s="159"/>
+      <c r="C94" s="175"/>
       <c r="D94" s="18" t="s">
         <v>5</v>
       </c>
@@ -6640,7 +6788,7 @@
       <c r="B95" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="C95" s="160"/>
+      <c r="C95" s="178"/>
       <c r="D95" s="18" t="s">
         <v>2</v>
       </c>
@@ -6661,7 +6809,7 @@
       <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:7" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A97" s="161" t="s">
+      <c r="A97" s="192" t="s">
         <v>74</v>
       </c>
       <c r="B97" s="32" t="s">
@@ -6676,7 +6824,7 @@
       <c r="G97" s="22"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="162"/>
+      <c r="A98" s="170"/>
       <c r="B98" s="34" t="s">
         <v>76</v>
       </c>
@@ -6687,7 +6835,7 @@
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="162"/>
+      <c r="A99" s="170"/>
       <c r="B99" s="34" t="s">
         <v>73</v>
       </c>
@@ -6701,7 +6849,7 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="162"/>
+      <c r="A100" s="170"/>
       <c r="B100" s="34" t="s">
         <v>380</v>
       </c>
@@ -6714,7 +6862,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A101" s="163"/>
+      <c r="A101" s="193"/>
       <c r="B101" s="36" t="s">
         <v>77</v>
       </c>
@@ -6731,7 +6879,7 @@
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="164" t="s">
+      <c r="A103" s="194" t="s">
         <v>75</v>
       </c>
       <c r="B103" s="31" t="s">
@@ -6742,7 +6890,7 @@
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="165"/>
+      <c r="A104" s="195"/>
       <c r="B104" s="33" t="s">
         <v>381</v>
       </c>
@@ -6751,7 +6899,7 @@
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="165"/>
+      <c r="A105" s="195"/>
       <c r="B105" s="33" t="s">
         <v>73</v>
       </c>
@@ -6760,7 +6908,7 @@
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="165"/>
+      <c r="A106" s="195"/>
       <c r="B106" s="33" t="s">
         <v>382</v>
       </c>
@@ -6769,7 +6917,7 @@
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A107" s="166"/>
+      <c r="A107" s="196"/>
       <c r="B107" s="35" t="s">
         <v>241</v>
       </c>
@@ -6786,7 +6934,7 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="151" t="s">
+      <c r="A111" s="187" t="s">
         <v>367</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -6803,7 +6951,7 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="152"/>
+      <c r="A112" s="188"/>
       <c r="B112" s="34" t="s">
         <v>365</v>
       </c>
@@ -6874,6 +7022,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C50:C60"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A10:A72"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A75:A95"/>
     <mergeCell ref="C32:C39"/>
@@ -6887,15 +7044,6 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C50:C60"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A10:A72"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -6925,12 +7073,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
       <c r="E1" s="4"/>
       <c r="F1" s="3"/>
     </row>
@@ -6975,75 +7123,75 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
+      <c r="A6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="184"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="199"/>
       <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="186"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="191"/>
+      <c r="E8" s="206"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1">
       <c r="A9" s="39"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="190"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="44"/>
-      <c r="E9" s="192"/>
+      <c r="E9" s="207"/>
     </row>
     <row r="10" spans="1:8" s="52" customFormat="1" ht="14.25" thickBot="1">
       <c r="A10" s="58"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="186"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="192"/>
+      <c r="E10" s="207"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" thickBot="1">
       <c r="A11" s="39"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="190"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="205"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="192"/>
+      <c r="E11" s="207"/>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" thickBot="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="186"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
       <c r="D12" s="45"/>
-      <c r="E12" s="192"/>
+      <c r="E12" s="207"/>
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" thickBot="1"/>
     <row r="14" spans="1:8" ht="32.25" thickBot="1">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="197" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="199"/>
       <c r="G14" s="136" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" thickBot="1">
@@ -7269,10 +7417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7283,32 +7431,33 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="14" style="124" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="148" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="14" style="124" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" thickBot="1"/>
-    <row r="2" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A2" s="199" t="s">
-        <v>580</v>
-      </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="201"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" thickBot="1">
+    <row r="1" spans="1:14" ht="14.25" thickBot="1"/>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A2" s="215" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="217"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1">
       <c r="A3" s="112" t="s">
         <v>337</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="147" t="s">
         <v>339</v>
       </c>
       <c r="D3" s="43" t="s">
@@ -7318,7 +7467,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" thickBot="1">
+    <row r="4" spans="1:14" ht="14.25" thickBot="1">
       <c r="A4" s="35">
         <v>250000</v>
       </c>
@@ -7339,44 +7488,45 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="B5" s="15"/>
       <c r="E5" s="76"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" s="15"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="B7" s="15"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1">
+    <row r="8" spans="1:14" ht="14.25" thickBot="1">
       <c r="B8" s="15"/>
       <c r="G8" s="125"/>
-      <c r="I8" s="125"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A9" s="196" t="s">
-        <v>575</v>
-      </c>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="135"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" thickBot="1">
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A9" s="212" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="135"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>554</v>
@@ -7384,627 +7534,967 @@
       <c r="C10" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="D10" s="139" t="s">
-        <v>574</v>
+      <c r="D10" s="138" t="s">
+        <v>571</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="H10" s="43" t="s">
+      <c r="L10" s="138" t="s">
+        <v>568</v>
+      </c>
+      <c r="M10" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="K10" s="139" t="s">
-        <v>571</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>572</v>
-      </c>
-      <c r="M10" s="135"/>
-    </row>
-    <row r="11" spans="1:13" s="143" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A11" s="138"/>
-      <c r="B11" s="193">
+      <c r="N10" s="135"/>
+    </row>
+    <row r="11" spans="1:14" s="141" customFormat="1">
+      <c r="A11" s="208" t="s">
+        <v>553</v>
+      </c>
+      <c r="B11" s="208">
         <v>5</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="187" t="s">
         <v>557</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>561</v>
-      </c>
-      <c r="E11" s="144">
+        <v>560</v>
+      </c>
+      <c r="E11" s="158">
         <v>9.9999000000000002</v>
       </c>
-      <c r="F11" s="145">
-        <f t="shared" ref="F11:F16" si="0">E11</f>
+      <c r="F11" s="143">
+        <f t="shared" ref="F11:F19" si="0">E11</f>
         <v>9.9999000000000002</v>
       </c>
-      <c r="G11" s="144">
-        <f t="shared" ref="G11:G16" si="1">F11*10</f>
+      <c r="G11" s="142">
+        <f t="shared" ref="G11:G19" si="1">F11*10</f>
         <v>99.998999999999995</v>
       </c>
-      <c r="H11" s="144">
-        <f t="shared" ref="H11:H16" si="2">F11*145.0377</f>
+      <c r="H11" s="142">
+        <f t="shared" ref="H11:H19" si="2">F11*145.0377</f>
         <v>1450.36249623</v>
       </c>
-      <c r="I11" s="144">
+      <c r="I11" s="142"/>
+      <c r="J11" s="142">
         <f>E11*1000</f>
         <v>9999.9</v>
       </c>
-      <c r="J11" s="144">
+      <c r="K11" s="142">
         <f>E11*10.19716</f>
         <v>101.97058028400001</v>
       </c>
-      <c r="K11" s="146">
+      <c r="L11" s="144">
         <f>E11*1000000</f>
         <v>9999900</v>
       </c>
-      <c r="L11" s="144"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A12" s="194" t="s">
-        <v>553</v>
-      </c>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="137" t="s">
-        <v>560</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="M11" s="142"/>
+    </row>
+    <row r="12" spans="1:14" s="141" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A12" s="209"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="159" t="s">
+        <v>579</v>
+      </c>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161">
+        <v>4</v>
+      </c>
+      <c r="G12" s="159" t="s">
+        <v>583</v>
+      </c>
+      <c r="H12" s="159" t="s">
+        <v>587</v>
+      </c>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159" t="s">
+        <v>587</v>
+      </c>
+      <c r="K12" s="159" t="s">
+        <v>591</v>
+      </c>
+      <c r="L12" s="162"/>
+      <c r="M12" s="159"/>
+    </row>
+    <row r="13" spans="1:14" s="149" customFormat="1">
+      <c r="A13" s="209"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="139" t="s">
+        <v>581</v>
+      </c>
+      <c r="E13" s="157"/>
+      <c r="F13" s="150">
+        <v>3</v>
+      </c>
+      <c r="G13" s="137" t="s">
+        <v>584</v>
+      </c>
+      <c r="H13" s="137" t="s">
+        <v>588</v>
+      </c>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137" t="s">
+        <v>588</v>
+      </c>
+      <c r="K13" s="137" t="s">
+        <v>592</v>
+      </c>
+      <c r="L13" s="104"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" s="149" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A14" s="209"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="138" t="s">
+        <v>580</v>
+      </c>
+      <c r="E14" s="157">
         <v>9.9990000000000006</v>
       </c>
-      <c r="F12" s="35">
-        <f t="shared" si="0"/>
+      <c r="F14" s="150">
+        <f>E14</f>
         <v>9.9990000000000006</v>
       </c>
-      <c r="G12" s="10">
-        <f t="shared" si="1"/>
+      <c r="G14" s="137">
+        <f>F14*10</f>
         <v>99.990000000000009</v>
       </c>
-      <c r="H12" s="10">
-        <f t="shared" si="2"/>
+      <c r="H14" s="137">
+        <f>F14*145.0377</f>
         <v>1450.2319623000001</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" ref="I12:I16" si="3">E12*1000</f>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137">
+        <f>F14*1000</f>
         <v>9999</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" ref="J12:J16" si="4">E12*10.19716</f>
+      <c r="K14" s="137">
+        <f>F14*10.19716</f>
         <v>101.96140284000001</v>
       </c>
-      <c r="K12" s="36">
-        <f t="shared" ref="K12:K16" si="5">E12*1000000</f>
+      <c r="L14" s="104">
+        <f>F14*1000000</f>
         <v>9999000</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="135"/>
-    </row>
-    <row r="13" spans="1:13" s="143" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A13" s="194"/>
-      <c r="B13" s="193">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" s="141" customFormat="1">
+      <c r="A15" s="209"/>
+      <c r="B15" s="208">
         <v>4</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C15" s="187" t="s">
         <v>558</v>
       </c>
-      <c r="D13" s="142" t="s">
-        <v>563</v>
-      </c>
-      <c r="E13" s="144">
+      <c r="D15" s="142" t="s">
+        <v>561</v>
+      </c>
+      <c r="E15" s="158">
         <v>99.998999999999995</v>
       </c>
-      <c r="F13" s="145">
+      <c r="F15" s="143">
         <f t="shared" si="0"/>
         <v>99.998999999999995</v>
       </c>
-      <c r="G13" s="144">
+      <c r="G15" s="142">
         <f t="shared" si="1"/>
         <v>999.99</v>
       </c>
-      <c r="H13" s="144">
+      <c r="H15" s="142">
         <f t="shared" si="2"/>
         <v>14503.624962299999</v>
       </c>
-      <c r="I13" s="144">
-        <f t="shared" si="3"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142">
+        <f t="shared" ref="J15:J19" si="3">E15*1000</f>
         <v>99999</v>
       </c>
-      <c r="J13" s="144">
-        <f t="shared" si="4"/>
+      <c r="K15" s="142">
+        <f t="shared" ref="K15:K19" si="4">E15*10.19716</f>
         <v>1019.7058028399999</v>
       </c>
-      <c r="K13" s="146">
-        <f t="shared" si="5"/>
+      <c r="L15" s="144">
+        <f t="shared" ref="L15:L19" si="5">E15*1000000</f>
         <v>99999000</v>
       </c>
-      <c r="L13" s="144"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A14" s="194"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="137" t="s">
+      <c r="M15" s="142"/>
+    </row>
+    <row r="16" spans="1:14" s="141" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A16" s="209"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="159" t="s">
+        <v>579</v>
+      </c>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161">
+        <v>3</v>
+      </c>
+      <c r="G16" s="159" t="s">
+        <v>584</v>
+      </c>
+      <c r="H16" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="K16" s="159" t="s">
+        <v>592</v>
+      </c>
+      <c r="L16" s="162"/>
+      <c r="M16" s="159"/>
+    </row>
+    <row r="17" spans="1:14" s="149" customFormat="1">
+      <c r="A17" s="209"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="139" t="s">
+        <v>581</v>
+      </c>
+      <c r="E17" s="157"/>
+      <c r="F17" s="150">
+        <v>2</v>
+      </c>
+      <c r="G17" s="137" t="s">
+        <v>585</v>
+      </c>
+      <c r="H17" s="137" t="s">
+        <v>589</v>
+      </c>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137" t="s">
+        <v>589</v>
+      </c>
+      <c r="K17" s="137" t="s">
+        <v>593</v>
+      </c>
+      <c r="L17" s="104"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" s="149" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A18" s="209"/>
+      <c r="B18" s="210"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="138" t="s">
+        <v>582</v>
+      </c>
+      <c r="E18" s="157">
+        <v>99.99</v>
+      </c>
+      <c r="F18" s="150">
+        <f>E18</f>
+        <v>99.99</v>
+      </c>
+      <c r="G18" s="137">
+        <f>F18*10</f>
+        <v>999.9</v>
+      </c>
+      <c r="H18" s="137">
+        <f>F18*145.0377</f>
+        <v>14502.319622999999</v>
+      </c>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137">
+        <f>F18*1000</f>
+        <v>99990</v>
+      </c>
+      <c r="K18" s="137">
+        <f>F18*10.19716</f>
+        <v>1019.6140283999999</v>
+      </c>
+      <c r="L18" s="104">
+        <f>F18*1000000</f>
+        <v>99990000</v>
+      </c>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" s="141" customFormat="1">
+      <c r="A19" s="209"/>
+      <c r="B19" s="208">
+        <v>3</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>559</v>
+      </c>
+      <c r="D19" s="142" t="s">
         <v>562</v>
       </c>
-      <c r="E14" s="10">
-        <v>99.99</v>
-      </c>
-      <c r="F14" s="35">
-        <f t="shared" si="0"/>
-        <v>99.99</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="1"/>
-        <v>999.9</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="2"/>
-        <v>14502.319622999999</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="3"/>
-        <v>99990</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="4"/>
-        <v>1019.6140283999999</v>
-      </c>
-      <c r="K14" s="36">
-        <f t="shared" si="5"/>
-        <v>99990000</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="135"/>
-    </row>
-    <row r="15" spans="1:13" s="143" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A15" s="194"/>
-      <c r="B15" s="193">
-        <v>3</v>
-      </c>
-      <c r="C15" s="193" t="s">
-        <v>559</v>
-      </c>
-      <c r="D15" s="142" t="s">
-        <v>565</v>
-      </c>
-      <c r="E15" s="141">
+      <c r="E19" s="158">
         <v>999.99</v>
       </c>
-      <c r="F15" s="147">
+      <c r="F19" s="143">
         <f t="shared" si="0"/>
         <v>999.99</v>
       </c>
-      <c r="G15" s="141">
+      <c r="G19" s="142">
         <f t="shared" si="1"/>
         <v>9999.9</v>
       </c>
-      <c r="H15" s="141">
+      <c r="H19" s="142">
         <f t="shared" si="2"/>
         <v>145036.24962300001</v>
       </c>
-      <c r="I15" s="141">
+      <c r="I19" s="142"/>
+      <c r="J19" s="142">
         <f t="shared" si="3"/>
         <v>999990</v>
       </c>
-      <c r="J15" s="141">
+      <c r="K19" s="142">
         <f t="shared" si="4"/>
         <v>10197.058028400001</v>
       </c>
-      <c r="K15" s="143">
+      <c r="L19" s="144">
         <f t="shared" si="5"/>
         <v>999990000</v>
       </c>
-      <c r="L15" s="141"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A16" s="194"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="140" t="s">
-        <v>564</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="M19" s="142"/>
+    </row>
+    <row r="20" spans="1:14" s="141" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A20" s="209"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="159" t="s">
+        <v>579</v>
+      </c>
+      <c r="E20" s="163"/>
+      <c r="F20" s="145">
+        <v>2</v>
+      </c>
+      <c r="G20" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="H20" s="140" t="s">
+        <v>589</v>
+      </c>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140" t="s">
+        <v>589</v>
+      </c>
+      <c r="K20" s="140" t="s">
+        <v>593</v>
+      </c>
+      <c r="L20" s="151"/>
+      <c r="M20" s="140"/>
+    </row>
+    <row r="21" spans="1:14" s="149" customFormat="1">
+      <c r="A21" s="209"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="139" t="s">
+        <v>581</v>
+      </c>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156">
+        <v>1</v>
+      </c>
+      <c r="G21" s="156" t="s">
+        <v>586</v>
+      </c>
+      <c r="H21" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="I21" s="139"/>
+      <c r="J21" s="154" t="s">
+        <v>590</v>
+      </c>
+      <c r="K21" s="154" t="s">
+        <v>594</v>
+      </c>
+      <c r="L21" s="154"/>
+      <c r="M21" s="86"/>
+    </row>
+    <row r="22" spans="1:14" s="149" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A22" s="210"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="138" t="s">
+        <v>595</v>
+      </c>
+      <c r="E22" s="146">
         <v>999.9</v>
       </c>
-      <c r="F16" s="35">
-        <f t="shared" si="0"/>
+      <c r="F22" s="146">
+        <f>E22</f>
         <v>999.9</v>
       </c>
-      <c r="G16" s="10">
-        <f t="shared" si="1"/>
+      <c r="G22" s="146">
+        <f>F22*10</f>
         <v>9999</v>
       </c>
-      <c r="H16" s="10">
-        <f t="shared" si="2"/>
-        <v>145023.19623</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="3"/>
+      <c r="H22" s="146">
+        <f>G22*145.0377</f>
+        <v>1450231.9623</v>
+      </c>
+      <c r="I22" s="138"/>
+      <c r="J22" s="155">
+        <f>F22*1000</f>
         <v>999900</v>
       </c>
-      <c r="J16" s="10">
-        <f t="shared" si="4"/>
+      <c r="K22" s="155">
+        <f>F22*10.19716</f>
         <v>10196.140283999999</v>
       </c>
-      <c r="K16" s="135">
-        <f t="shared" si="5"/>
+      <c r="L22" s="155">
+        <f>F22*1000000</f>
         <v>999900000</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="135"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A17" s="199"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="135"/>
-    </row>
-    <row r="18" spans="1:13" s="135" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A18" s="10" t="s">
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A23" s="215"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="135"/>
+    </row>
+    <row r="24" spans="1:14" s="135" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A24" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D24" s="146" t="s">
+        <v>571</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="F24" s="86" t="s">
         <v>573</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D18" s="148" t="s">
+      <c r="G24" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>566</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="86" t="s">
         <v>574</v>
       </c>
-      <c r="E18" s="68" t="s">
-        <v>579</v>
-      </c>
-      <c r="F18" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>566</v>
-      </c>
-      <c r="H18" s="68" t="s">
+      <c r="K24" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="L24" s="137" t="s">
+        <v>568</v>
+      </c>
+      <c r="M24" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="I18" s="68" t="s">
-        <v>577</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="K18" s="138" t="s">
-        <v>571</v>
-      </c>
-      <c r="L18" s="68" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="143" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A19" s="193" t="s">
+    </row>
+    <row r="25" spans="1:14" s="141" customFormat="1">
+      <c r="A25" s="187" t="s">
         <v>555</v>
       </c>
-      <c r="B19" s="193">
+      <c r="B25" s="208">
         <v>5</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C25" s="187" t="s">
         <v>557</v>
       </c>
-      <c r="D19" s="149" t="s">
+      <c r="D25" s="142" t="s">
+        <v>560</v>
+      </c>
+      <c r="E25" s="143">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="F25" s="143">
+        <f>E25</f>
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="G25" s="143">
+        <f>E25/1000*10</f>
+        <v>9.9999000000000005E-2</v>
+      </c>
+      <c r="H25" s="143">
+        <f>E25/1000*145.0377</f>
+        <v>1.4503624962300001</v>
+      </c>
+      <c r="I25" s="164"/>
+      <c r="J25" s="158">
+        <f>E25/1000</f>
+        <v>9.9999000000000008E-3</v>
+      </c>
+      <c r="K25" s="158">
+        <f>E25/1000*10.19716</f>
+        <v>0.10197058028400001</v>
+      </c>
+      <c r="L25" s="158">
+        <f>E25*1000</f>
+        <v>9999.9</v>
+      </c>
+      <c r="M25" s="158"/>
+    </row>
+    <row r="26" spans="1:14" s="141" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A26" s="188"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="159" t="s">
+        <v>581</v>
+      </c>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161">
+        <v>4</v>
+      </c>
+      <c r="G26" s="161" t="s">
+        <v>596</v>
+      </c>
+      <c r="H26" s="161">
+        <v>4</v>
+      </c>
+      <c r="I26" s="165"/>
+      <c r="J26" s="160" t="s">
+        <v>602</v>
+      </c>
+      <c r="K26" s="160">
+        <v>5</v>
+      </c>
+      <c r="L26" s="160" t="s">
+        <v>587</v>
+      </c>
+      <c r="M26" s="160"/>
+    </row>
+    <row r="27" spans="1:14" s="149" customFormat="1">
+      <c r="A27" s="188"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="152" t="s">
+        <v>581</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="13">
+        <v>3</v>
+      </c>
+      <c r="G27" s="137" t="s">
+        <v>599</v>
+      </c>
+      <c r="H27" s="137">
+        <v>3</v>
+      </c>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137" t="s">
+        <v>605</v>
+      </c>
+      <c r="K27" s="137">
+        <v>4</v>
+      </c>
+      <c r="L27" s="137" t="s">
+        <v>588</v>
+      </c>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" s="149" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A28" s="188"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="153" t="s">
+        <v>580</v>
+      </c>
+      <c r="E28" s="33">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="F28" s="13">
+        <f>E28</f>
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="G28" s="137">
+        <f>F28/1000*10</f>
+        <v>9.9990000000000009E-2</v>
+      </c>
+      <c r="H28" s="137">
+        <f>F28/1000*145.0377</f>
+        <v>1.4502319623000002</v>
+      </c>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137">
+        <f>F28/1000</f>
+        <v>9.9990000000000009E-3</v>
+      </c>
+      <c r="K28" s="137">
+        <f>F28/1000*10.19716</f>
+        <v>0.10196140284000001</v>
+      </c>
+      <c r="L28" s="137">
+        <f>F28*1000</f>
+        <v>9999</v>
+      </c>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" s="141" customFormat="1">
+      <c r="A29" s="188"/>
+      <c r="B29" s="208">
+        <v>4</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="142" t="s">
         <v>561</v>
       </c>
-      <c r="E19" s="144">
-        <v>9.9999000000000002</v>
-      </c>
-      <c r="F19" s="144">
-        <f>E19</f>
-        <v>9.9999000000000002</v>
-      </c>
-      <c r="G19" s="144">
-        <f>E19/1000*10</f>
-        <v>9.9999000000000005E-2</v>
-      </c>
-      <c r="H19" s="144">
-        <f>E19/1000*145.0377</f>
-        <v>1.4503624962300001</v>
-      </c>
-      <c r="I19" s="144">
-        <f>E19/1000</f>
-        <v>9.9999000000000008E-3</v>
-      </c>
-      <c r="J19" s="144">
-        <f>E19/1000*10.19716</f>
-        <v>0.10197058028400001</v>
-      </c>
-      <c r="K19" s="144">
-        <f>E19*1000</f>
-        <v>9999.9</v>
-      </c>
-      <c r="L19" s="144"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A20" s="194"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="112" t="s">
-        <v>560</v>
-      </c>
-      <c r="E20" s="10">
-        <v>9.9990000000000006</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F24" si="6">E20</f>
-        <v>9.9990000000000006</v>
-      </c>
-      <c r="G20" s="139">
-        <f t="shared" ref="G20:G24" si="7">E20/1000*10</f>
-        <v>9.9990000000000009E-2</v>
-      </c>
-      <c r="H20" s="139">
-        <f t="shared" ref="H20:H24" si="8">E20/1000*145.0377</f>
-        <v>1.4502319623000002</v>
-      </c>
-      <c r="I20" s="139">
-        <f t="shared" ref="I20:I24" si="9">E20/1000</f>
-        <v>9.9990000000000009E-3</v>
-      </c>
-      <c r="J20" s="139">
-        <f t="shared" ref="J20:J24" si="10">E20/1000*10.19716</f>
-        <v>0.10196140284000001</v>
-      </c>
-      <c r="K20" s="139">
-        <f t="shared" ref="K20:K24" si="11">E20*1000</f>
-        <v>9999</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="135"/>
-    </row>
-    <row r="21" spans="1:13" s="143" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A21" s="194"/>
-      <c r="B21" s="193">
+      <c r="E29" s="144">
+        <v>99.998999999999995</v>
+      </c>
+      <c r="F29" s="142">
+        <f t="shared" ref="F29:F33" si="6">E29</f>
+        <v>99.998999999999995</v>
+      </c>
+      <c r="G29" s="142">
+        <f t="shared" ref="G29:G33" si="7">E29/1000*10</f>
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="H29" s="142">
+        <f t="shared" ref="H29:H33" si="8">E29/1000*145.0377</f>
+        <v>14.503624962299998</v>
+      </c>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142">
+        <f t="shared" ref="J29:J33" si="9">E29/1000</f>
+        <v>9.9998999999999991E-2</v>
+      </c>
+      <c r="K29" s="142">
+        <f t="shared" ref="K29:K33" si="10">E29/1000*10.19716</f>
+        <v>1.0197058028399999</v>
+      </c>
+      <c r="L29" s="142">
+        <f t="shared" ref="L29:L33" si="11">E29*1000</f>
+        <v>99999</v>
+      </c>
+      <c r="M29" s="158"/>
+    </row>
+    <row r="30" spans="1:14" s="141" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A30" s="188"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="159" t="s">
+        <v>581</v>
+      </c>
+      <c r="E30" s="162"/>
+      <c r="F30" s="159">
+        <v>3</v>
+      </c>
+      <c r="G30" s="159" t="s">
+        <v>597</v>
+      </c>
+      <c r="H30" s="159">
+        <v>3</v>
+      </c>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159" t="s">
+        <v>603</v>
+      </c>
+      <c r="K30" s="159">
         <v>4</v>
       </c>
-      <c r="C21" s="193" t="s">
-        <v>558</v>
-      </c>
-      <c r="D21" s="149" t="s">
-        <v>563</v>
-      </c>
-      <c r="E21" s="144">
-        <v>99.998999999999995</v>
-      </c>
-      <c r="F21" s="144">
-        <f t="shared" si="6"/>
-        <v>99.998999999999995</v>
-      </c>
-      <c r="G21" s="144">
-        <f t="shared" si="7"/>
-        <v>0.99998999999999993</v>
-      </c>
-      <c r="H21" s="144">
-        <f t="shared" si="8"/>
-        <v>14.503624962299998</v>
-      </c>
-      <c r="I21" s="144">
-        <f t="shared" si="9"/>
-        <v>9.9998999999999991E-2</v>
-      </c>
-      <c r="J21" s="144">
-        <f t="shared" si="10"/>
-        <v>1.0197058028399999</v>
-      </c>
-      <c r="K21" s="145">
-        <f t="shared" si="11"/>
-        <v>99999</v>
-      </c>
-      <c r="L21" s="144"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A22" s="194"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="112" t="s">
+      <c r="L30" s="159" t="s">
+        <v>588</v>
+      </c>
+      <c r="M30" s="160"/>
+    </row>
+    <row r="31" spans="1:14" s="149" customFormat="1">
+      <c r="A31" s="188"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="68" t="s">
+        <v>581</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="13">
+        <v>2</v>
+      </c>
+      <c r="G31" s="137" t="s">
+        <v>600</v>
+      </c>
+      <c r="H31" s="137">
+        <v>2</v>
+      </c>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137" t="s">
+        <v>606</v>
+      </c>
+      <c r="K31" s="137">
+        <v>3</v>
+      </c>
+      <c r="L31" s="137" t="s">
+        <v>589</v>
+      </c>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" s="149" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A32" s="188"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="E32" s="34">
+        <v>99.99</v>
+      </c>
+      <c r="F32" s="13">
+        <f>E32</f>
+        <v>99.99</v>
+      </c>
+      <c r="G32" s="137">
+        <f>F32/1000*10</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H32" s="137">
+        <f>F32/1000*145.0377</f>
+        <v>14.502319623</v>
+      </c>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137">
+        <f>F32/1000</f>
+        <v>9.9989999999999996E-2</v>
+      </c>
+      <c r="K32" s="137">
+        <f>F32/1000*10.19716</f>
+        <v>1.0196140283999999</v>
+      </c>
+      <c r="L32" s="137">
+        <f>F32*1000</f>
+        <v>99990</v>
+      </c>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" s="141" customFormat="1">
+      <c r="A33" s="188"/>
+      <c r="B33" s="208">
+        <v>3</v>
+      </c>
+      <c r="C33" s="187" t="s">
+        <v>559</v>
+      </c>
+      <c r="D33" s="142" t="s">
         <v>562</v>
       </c>
-      <c r="E22" s="10">
-        <v>99.99</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="6"/>
-        <v>99.99</v>
-      </c>
-      <c r="G22" s="139">
-        <f t="shared" si="7"/>
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H22" s="139">
-        <f t="shared" si="8"/>
-        <v>14.502319623</v>
-      </c>
-      <c r="I22" s="139">
-        <f t="shared" si="9"/>
-        <v>9.9989999999999996E-2</v>
-      </c>
-      <c r="J22" s="139">
-        <f t="shared" si="10"/>
-        <v>1.0196140283999999</v>
-      </c>
-      <c r="K22" s="148">
-        <f t="shared" si="11"/>
-        <v>99990</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="135"/>
-    </row>
-    <row r="23" spans="1:13" s="143" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A23" s="194"/>
-      <c r="B23" s="193">
-        <v>3</v>
-      </c>
-      <c r="C23" s="193" t="s">
-        <v>559</v>
-      </c>
-      <c r="D23" s="149" t="s">
-        <v>565</v>
-      </c>
-      <c r="E23" s="141">
+      <c r="E33" s="144">
         <v>999.99</v>
       </c>
-      <c r="F23" s="141">
+      <c r="F33" s="142">
         <f t="shared" si="6"/>
         <v>999.99</v>
       </c>
-      <c r="G23" s="141">
+      <c r="G33" s="142">
         <f t="shared" si="7"/>
         <v>9.9999000000000002</v>
       </c>
-      <c r="H23" s="141">
+      <c r="H33" s="142">
         <f t="shared" si="8"/>
         <v>145.036249623</v>
       </c>
-      <c r="I23" s="141">
+      <c r="I33" s="164"/>
+      <c r="J33" s="142">
         <f t="shared" si="9"/>
         <v>0.99999000000000005</v>
       </c>
-      <c r="J23" s="141">
+      <c r="K33" s="142">
         <f t="shared" si="10"/>
         <v>10.197058028400001</v>
       </c>
-      <c r="K23" s="147">
+      <c r="L33" s="142">
         <f t="shared" si="11"/>
         <v>999990</v>
       </c>
-      <c r="L23" s="144"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A24" s="195"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="195"/>
-      <c r="D24" s="112" t="s">
-        <v>564</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="M33" s="158"/>
+    </row>
+    <row r="34" spans="1:13" s="141" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A34" s="188"/>
+      <c r="B34" s="209"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="159" t="s">
+        <v>581</v>
+      </c>
+      <c r="E34" s="162"/>
+      <c r="F34" s="159">
+        <v>2</v>
+      </c>
+      <c r="G34" s="159" t="s">
+        <v>598</v>
+      </c>
+      <c r="H34" s="161">
+        <v>2</v>
+      </c>
+      <c r="I34" s="165"/>
+      <c r="J34" s="160" t="s">
+        <v>604</v>
+      </c>
+      <c r="K34" s="159">
+        <v>3</v>
+      </c>
+      <c r="L34" s="159" t="s">
+        <v>589</v>
+      </c>
+      <c r="M34" s="160"/>
+    </row>
+    <row r="35" spans="1:13" s="149" customFormat="1">
+      <c r="A35" s="188"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33">
+        <v>1</v>
+      </c>
+      <c r="G35" s="156" t="s">
+        <v>601</v>
+      </c>
+      <c r="H35" s="156">
+        <v>1</v>
+      </c>
+      <c r="I35" s="139"/>
+      <c r="J35" s="154" t="s">
+        <v>607</v>
+      </c>
+      <c r="K35" s="154">
+        <v>2</v>
+      </c>
+      <c r="L35" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" s="149" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A36" s="211"/>
+      <c r="B36" s="210"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="E36" s="36">
         <v>999.9</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="6"/>
+      <c r="F36" s="35">
+        <f>E36</f>
         <v>999.9</v>
       </c>
-      <c r="G24" s="139">
-        <f t="shared" si="7"/>
+      <c r="G36" s="146">
+        <f>F36/1000*10</f>
         <v>9.9990000000000006</v>
       </c>
-      <c r="H24" s="139">
-        <f t="shared" si="8"/>
+      <c r="H36" s="146">
+        <f>F36/1000*145.0377</f>
         <v>145.02319623</v>
       </c>
-      <c r="I24" s="139">
-        <f t="shared" si="9"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="155">
+        <f>F36/1000</f>
         <v>0.99990000000000001</v>
       </c>
-      <c r="J24" s="139">
-        <f t="shared" si="10"/>
+      <c r="K36" s="155">
+        <f>F36/1000*10.19716</f>
         <v>10.196140284</v>
       </c>
-      <c r="K24" s="148">
-        <f t="shared" si="11"/>
+      <c r="L36" s="155">
+        <f>F36*1000</f>
         <v>999900</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="135"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="F28">
-        <f>99999*145.0377/1000</f>
-        <v>14503.6249623</v>
-      </c>
-      <c r="G28">
-        <f>9999*145.0377/1000</f>
-        <v>1450.2319623000001</v>
-      </c>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" s="149" customFormat="1">
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A9:M9"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
-  <conditionalFormatting sqref="E11:L11 H12:L16">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="E11:M11 M12:M22 H22:L22 H18:L19 H14:L15 E25:L25 E29:L29 E33:L33">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
       <formula>99999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:K12 E14:K14 E16:K16">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="E18:L18 E22:L22 E14:L14 E32 E36:E37 E28">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>9999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
       <formula>9999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:K11 E13:K13 E15:K15">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="E11:L11 E15:L15 E19:L19">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>99999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
       <formula>99999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
-      <formula>99999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20 E22 E24">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
-      <formula>9999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="E22:L22 E14:L14 E18:L18 E28:L28 E36:L37 M34:M37 M26:M28 M30:M32 E32:L32">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>9999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19 E21 E23">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
-      <formula>99999</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:K19 E21:K21 E23:K23">
+  <conditionalFormatting sqref="E25:L25 E29:L29 E33:L33">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>99999</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:L20 E22:L22 E24:L24">
+  <conditionalFormatting sqref="E28:L28 E32:L32 E36:L36">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>9999</formula>
     </cfRule>
@@ -8157,13 +8647,13 @@
     <row r="16" spans="1:3" s="116" customFormat="1"/>
     <row r="17" spans="1:8" s="116" customFormat="1"/>
     <row r="18" spans="1:8" s="59" customFormat="1">
-      <c r="A18" s="202" t="s">
+      <c r="A18" s="220" t="s">
         <v>298</v>
       </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="220"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" thickBot="1">
       <c r="A19" s="59" t="s">
@@ -8503,13 +8993,13 @@
       <c r="E42" s="10"/>
     </row>
     <row r="44" spans="1:5" s="59" customFormat="1">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="220" t="s">
         <v>295</v>
       </c>
-      <c r="B44" s="202"/>
-      <c r="C44" s="202"/>
-      <c r="D44" s="202"/>
-      <c r="E44" s="202"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="220"/>
+      <c r="E44" s="220"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1">
       <c r="A45" s="71" t="s">
@@ -8876,13 +9366,13 @@
     </row>
     <row r="68" spans="1:9" s="59" customFormat="1"/>
     <row r="69" spans="1:9" s="59" customFormat="1">
-      <c r="A69" s="202" t="s">
+      <c r="A69" s="220" t="s">
         <v>315</v>
       </c>
-      <c r="B69" s="202"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="202"/>
-      <c r="E69" s="202"/>
+      <c r="B69" s="220"/>
+      <c r="C69" s="220"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="220"/>
     </row>
     <row r="70" spans="1:9" ht="14.25" thickBot="1">
       <c r="A70" s="75" t="s">
@@ -9191,13 +9681,13 @@
       <c r="E91" s="34"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="202" t="s">
+      <c r="A92" s="220" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="202"/>
-      <c r="C92" s="202"/>
-      <c r="D92" s="202"/>
-      <c r="E92" s="202"/>
+      <c r="B92" s="220"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
+      <c r="E92" s="220"/>
     </row>
     <row r="93" spans="1:5" ht="14.25" thickBot="1">
       <c r="A93" s="75" t="s">
@@ -9445,13 +9935,13 @@
       <c r="E109" s="10"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="202" t="s">
+      <c r="A111" s="220" t="s">
         <v>235</v>
       </c>
-      <c r="B111" s="202"/>
-      <c r="C111" s="202"/>
-      <c r="D111" s="202"/>
-      <c r="E111" s="202"/>
+      <c r="B111" s="220"/>
+      <c r="C111" s="220"/>
+      <c r="D111" s="220"/>
+      <c r="E111" s="220"/>
     </row>
     <row r="112" spans="1:5" ht="14.25" thickBot="1">
       <c r="A112" s="59" t="s">
@@ -9774,13 +10264,13 @@
       <c r="E135" s="34"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="202" t="s">
+      <c r="A137" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="B137" s="202"/>
-      <c r="C137" s="202"/>
-      <c r="D137" s="202"/>
-      <c r="E137" s="202"/>
+      <c r="B137" s="220"/>
+      <c r="C137" s="220"/>
+      <c r="D137" s="220"/>
+      <c r="E137" s="220"/>
     </row>
     <row r="138" spans="1:5" s="71" customFormat="1" ht="14.25" thickBot="1">
       <c r="A138" s="59" t="s">
@@ -10026,13 +10516,13 @@
       <c r="E154" s="10"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="202" t="s">
+      <c r="A157" s="220" t="s">
         <v>238</v>
       </c>
-      <c r="B157" s="202"/>
-      <c r="C157" s="202"/>
-      <c r="D157" s="202"/>
-      <c r="E157" s="202"/>
+      <c r="B157" s="220"/>
+      <c r="C157" s="220"/>
+      <c r="D157" s="220"/>
+      <c r="E157" s="220"/>
     </row>
     <row r="158" spans="1:5" ht="14.25" thickBot="1">
       <c r="A158" s="59" t="s">
@@ -10278,13 +10768,13 @@
       <c r="E174" s="10"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="202" t="s">
+      <c r="A179" s="220" t="s">
         <v>552</v>
       </c>
-      <c r="B179" s="202"/>
-      <c r="C179" s="202"/>
-      <c r="D179" s="202"/>
-      <c r="E179" s="202"/>
+      <c r="B179" s="220"/>
+      <c r="C179" s="220"/>
+      <c r="D179" s="220"/>
+      <c r="E179" s="220"/>
     </row>
     <row r="180" spans="1:5" ht="14.25" thickBot="1">
       <c r="A180" s="59" t="s">
@@ -10549,13 +11039,13 @@
       <c r="E197" s="10"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="202" t="s">
+      <c r="A201" s="220" t="s">
         <v>334</v>
       </c>
-      <c r="B201" s="202"/>
-      <c r="C201" s="202"/>
-      <c r="D201" s="202"/>
-      <c r="E201" s="202"/>
+      <c r="B201" s="220"/>
+      <c r="C201" s="220"/>
+      <c r="D201" s="220"/>
+      <c r="E201" s="220"/>
     </row>
     <row r="202" spans="1:5" ht="14.25" thickBot="1">
       <c r="A202" s="71" t="s">
@@ -10877,13 +11367,13 @@
       <c r="E224" s="10"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="202" t="s">
+      <c r="A228" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="B228" s="202"/>
-      <c r="C228" s="202"/>
-      <c r="D228" s="202"/>
-      <c r="E228" s="202"/>
+      <c r="B228" s="220"/>
+      <c r="C228" s="220"/>
+      <c r="D228" s="220"/>
+      <c r="E228" s="220"/>
     </row>
     <row r="229" spans="1:5" ht="14.25" thickBot="1">
       <c r="A229" s="71" t="s">
@@ -11153,13 +11643,13 @@
       <c r="E247" s="10"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="202" t="s">
+      <c r="A250" s="220" t="s">
         <v>336</v>
       </c>
-      <c r="B250" s="202"/>
-      <c r="C250" s="202"/>
-      <c r="D250" s="202"/>
-      <c r="E250" s="202"/>
+      <c r="B250" s="220"/>
+      <c r="C250" s="220"/>
+      <c r="D250" s="220"/>
+      <c r="E250" s="220"/>
     </row>
     <row r="251" spans="1:5" ht="14.25" thickBot="1">
       <c r="A251" s="72" t="s">
@@ -11442,13 +11932,13 @@
       <c r="E270" s="10"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="202" t="s">
+      <c r="A273" s="220" t="s">
         <v>531</v>
       </c>
-      <c r="B273" s="202"/>
-      <c r="C273" s="202"/>
-      <c r="D273" s="202"/>
-      <c r="E273" s="202"/>
+      <c r="B273" s="220"/>
+      <c r="C273" s="220"/>
+      <c r="D273" s="220"/>
+      <c r="E273" s="220"/>
     </row>
     <row r="274" spans="1:5" ht="14.25" thickBot="1">
       <c r="A274" s="117" t="s">
@@ -11866,13 +12356,13 @@
       <c r="E300" s="10"/>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="202" t="s">
+      <c r="A303" s="220" t="s">
         <v>479</v>
       </c>
-      <c r="B303" s="202"/>
-      <c r="C303" s="202"/>
-      <c r="D303" s="202"/>
-      <c r="E303" s="202"/>
+      <c r="B303" s="220"/>
+      <c r="C303" s="220"/>
+      <c r="D303" s="220"/>
+      <c r="E303" s="220"/>
     </row>
     <row r="304" spans="1:5" ht="14.25" thickBot="1">
       <c r="A304" s="117" t="s">
@@ -12272,12 +12762,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A228:E228"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A137:E137"/>
@@ -12285,6 +12769,12 @@
     <mergeCell ref="A179:E179"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A250:E250"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A228:E228"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12314,15 +12804,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="222" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1">
@@ -12442,28 +12932,28 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="221" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="201"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="217"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="224" t="s">
         <v>410</v>
       </c>
-      <c r="B10" s="210"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="211"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="226"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" thickBot="1">
       <c r="A11" s="98" t="s">
@@ -12478,12 +12968,12 @@
       <c r="D11" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="215" t="s">
         <v>405</v>
       </c>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="201"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="217"/>
     </row>
     <row r="12" spans="1:8" ht="51" customHeight="1" thickBot="1">
       <c r="A12" s="98" t="s">
@@ -12498,12 +12988,12 @@
       <c r="D12" s="98" t="s">
         <v>407</v>
       </c>
-      <c r="E12" s="199" t="s">
+      <c r="E12" s="215" t="s">
         <v>432</v>
       </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="201"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="217"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" thickBot="1">
       <c r="A13" s="91"/>
@@ -12516,16 +13006,16 @@
       <c r="H13" s="106"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="227" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="198"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="214"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" thickBot="1">
       <c r="A15" s="98" t="s">
@@ -12540,12 +13030,12 @@
       <c r="D15" s="98" t="s">
         <v>404</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="215" t="s">
         <v>405</v>
       </c>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="201"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="217"/>
     </row>
     <row r="16" spans="1:8" ht="59.25" customHeight="1" thickBot="1">
       <c r="A16" s="98" t="s">
@@ -12560,12 +13050,12 @@
       <c r="D16" s="98" t="s">
         <v>407</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="215" t="s">
         <v>419</v>
       </c>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="201"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="217"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="97"/>
@@ -12625,13 +13115,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="81" customFormat="1">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="228" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
+      <c r="B29" s="228"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
     </row>
     <row r="30" spans="1:8" ht="14.25" thickBot="1">
       <c r="A30" s="92" t="s">
@@ -12921,13 +13411,13 @@
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:5" s="81" customFormat="1">
-      <c r="A54" s="203" t="s">
+      <c r="A54" s="228" t="s">
         <v>235</v>
       </c>
-      <c r="B54" s="203"/>
-      <c r="C54" s="203"/>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
+      <c r="B54" s="228"/>
+      <c r="C54" s="228"/>
+      <c r="D54" s="228"/>
+      <c r="E54" s="228"/>
     </row>
     <row r="55" spans="1:5" ht="14.25" thickBot="1">
       <c r="A55" s="92" t="s">
@@ -13204,13 +13694,13 @@
       <c r="E76" s="34"/>
     </row>
     <row r="79" spans="1:5" s="103" customFormat="1">
-      <c r="A79" s="205" t="s">
+      <c r="A79" s="230" t="s">
         <v>334</v>
       </c>
-      <c r="B79" s="205"/>
-      <c r="C79" s="205"/>
-      <c r="D79" s="205"/>
-      <c r="E79" s="205"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="230"/>
+      <c r="D79" s="230"/>
+      <c r="E79" s="230"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1">
       <c r="A80" s="92" t="s">
@@ -13519,13 +14009,13 @@
       <c r="E106" s="34"/>
     </row>
     <row r="107" spans="1:5" s="93" customFormat="1">
-      <c r="A107" s="202" t="s">
+      <c r="A107" s="220" t="s">
         <v>422</v>
       </c>
-      <c r="B107" s="202"/>
-      <c r="C107" s="202"/>
-      <c r="D107" s="202"/>
-      <c r="E107" s="202"/>
+      <c r="B107" s="220"/>
+      <c r="C107" s="220"/>
+      <c r="D107" s="220"/>
+      <c r="E107" s="220"/>
     </row>
     <row r="108" spans="1:5" s="93" customFormat="1" ht="14.25" thickBot="1">
       <c r="A108" s="93" t="s">
@@ -13817,13 +14307,13 @@
       <c r="E130" s="34"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="204" t="s">
+      <c r="A131" s="229" t="s">
         <v>418</v>
       </c>
-      <c r="B131" s="204"/>
-      <c r="C131" s="204"/>
-      <c r="D131" s="204"/>
-      <c r="E131" s="204"/>
+      <c r="B131" s="229"/>
+      <c r="C131" s="229"/>
+      <c r="D131" s="229"/>
+      <c r="E131" s="229"/>
     </row>
     <row r="132" spans="1:5" ht="14.25" thickBot="1">
       <c r="A132" s="104" t="s">
@@ -14055,6 +14545,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A107:E107"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="A9:H9"/>
@@ -14063,11 +14558,6 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A107:E107"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14077,10 +14567,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14104,10 +14594,10 @@
       <c r="C2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="154"/>
+      <c r="E2" s="190"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1">
       <c r="A3" s="18" t="s">
@@ -14130,7 +14620,7 @@
       <c r="A4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="159"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="18" t="s">
         <v>126</v>
       </c>
@@ -14145,7 +14635,7 @@
       <c r="A5" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="159"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
@@ -14160,7 +14650,7 @@
       <c r="A6" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="159"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
@@ -14175,7 +14665,7 @@
       <c r="A7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="159"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="18" t="s">
         <v>132</v>
       </c>
@@ -14190,7 +14680,7 @@
       <c r="A8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="159"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="18" t="s">
         <v>8</v>
       </c>
@@ -14205,7 +14695,7 @@
       <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="159"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
@@ -14220,7 +14710,7 @@
       <c r="A10" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="159"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="18" t="s">
         <v>5</v>
       </c>
@@ -14235,7 +14725,7 @@
       <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="159"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="18" t="s">
         <v>5</v>
       </c>
@@ -14250,7 +14740,7 @@
       <c r="A12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="18" t="s">
         <v>5</v>
       </c>
@@ -14265,7 +14755,7 @@
       <c r="A13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="159"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="18" t="s">
         <v>5</v>
       </c>
@@ -14280,7 +14770,7 @@
       <c r="A14" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="159"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
@@ -14295,7 +14785,7 @@
       <c r="A15" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="159"/>
+      <c r="B15" s="175"/>
       <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
@@ -14310,7 +14800,7 @@
       <c r="A16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="159"/>
+      <c r="B16" s="175"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -14325,7 +14815,7 @@
       <c r="A17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="159"/>
+      <c r="B17" s="175"/>
       <c r="C17" s="18" t="s">
         <v>2</v>
       </c>
@@ -14340,7 +14830,7 @@
       <c r="A18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="159"/>
+      <c r="B18" s="175"/>
       <c r="C18" s="18" t="s">
         <v>5</v>
       </c>
@@ -14355,7 +14845,7 @@
       <c r="A19" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="159"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
@@ -14370,7 +14860,7 @@
       <c r="A20" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="B20" s="159"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="18" t="s">
         <v>5</v>
       </c>
@@ -14385,7 +14875,7 @@
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="159"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="18" t="s">
         <v>0</v>
       </c>
@@ -14400,7 +14890,7 @@
       <c r="A22" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="159"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="18" t="s">
         <v>5</v>
       </c>
@@ -14415,7 +14905,7 @@
       <c r="A23" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="160"/>
+      <c r="B23" s="178"/>
       <c r="C23" s="18" t="s">
         <v>2</v>
       </c>
@@ -14424,6 +14914,11 @@
       </c>
       <c r="E23" s="18" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>18112998328</v>
       </c>
     </row>
   </sheetData>
